--- a/overige_bestanden/Planning.xlsx
+++ b/overige_bestanden/Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2F8682A-D091-42D3-926C-B48B283C94E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD9D50-3E75-487E-A6E2-B90BF574E8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Oma</t>
+  </si>
+  <si>
+    <t>jesse</t>
   </si>
 </sst>
 </file>
@@ -1216,6 +1219,16 @@
     <xf numFmtId="168" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1225,16 +1238,6 @@
     <xf numFmtId="169" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1845,8 +1848,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1889,13 +1892,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="42"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="73"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="71">
         <f ca="1">TODAY()</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F3" s="71"/>
     </row>
@@ -1903,75 +1906,75 @@
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="72">
         <f ca="1">I5</f>
         <v>45054</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="68">
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="72">
         <f ca="1">P5</f>
         <v>45061</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="74"/>
-      <c r="BE4" s="74"/>
-      <c r="BF4" s="74"/>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="74"/>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="74"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="74"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="70"/>
+      <c r="AX4" s="70"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="70"/>
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="70"/>
+      <c r="BF4" s="70"/>
+      <c r="BG4" s="70"/>
+      <c r="BH4" s="70"/>
+      <c r="BI4" s="70"/>
+      <c r="BJ4" s="70"/>
+      <c r="BK4" s="70"/>
+      <c r="BL4" s="70"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
@@ -2284,7 +2287,7 @@
       <c r="F8" s="57"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H33" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H25" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="23"/>
@@ -2359,11 +2362,11 @@
       </c>
       <c r="E9" s="58">
         <f ca="1">Project_Start</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F9" s="58">
         <f ca="1">E9</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
@@ -2442,11 +2445,11 @@
       </c>
       <c r="E10" s="58">
         <f ca="1">F9</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F10" s="58">
         <f ca="1">E10</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
@@ -2519,15 +2522,15 @@
         <v>45</v>
       </c>
       <c r="D11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="58">
         <f ca="1">F10</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F11" s="58">
         <f ca="1">E11</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
@@ -2596,17 +2599,19 @@
       <c r="B12" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="44" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="16">
         <v>1</v>
       </c>
       <c r="E12" s="58">
         <f ca="1">F11</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F12" s="58">
         <f ca="1">E12</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13">
@@ -2676,18 +2681,18 @@
         <v>40</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="58">
         <f ca="1">E10</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F13" s="58">
         <f ca="1">E13</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13">
@@ -2829,17 +2834,19 @@
       <c r="B15" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="61">
         <f ca="1">E13</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F15" s="61">
         <f ca="1">E15</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13">
@@ -2908,12 +2915,14 @@
       <c r="B16" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="19">
         <v>0</v>
       </c>
       <c r="E16" s="61">
-        <f ca="1">E15+1</f>
+        <f ca="1">E15</f>
         <v>45057</v>
       </c>
       <c r="F16" s="61">
@@ -2987,15 +2996,17 @@
       <c r="B17" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="46" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="E17" s="61">
         <f ca="1">E15</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F17" s="61">
         <f ca="1">E17+5</f>
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13">
@@ -3064,15 +3075,17 @@
       <c r="B18" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="46" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" s="19"/>
       <c r="E18" s="61">
         <f ca="1">E17</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F18" s="61">
         <f ca="1">E18+5</f>
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13">
@@ -3283,15 +3296,17 @@
       <c r="B21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" s="22"/>
       <c r="E21" s="64">
         <f ca="1">E9</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F21" s="64">
         <f ca="1">E21+5</f>
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
@@ -3360,15 +3375,17 @@
       <c r="B22" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="D22" s="22"/>
       <c r="E22" s="64">
         <f ca="1">E21</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F22" s="64">
         <f ca="1">E22+5</f>
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13">
@@ -3437,15 +3454,17 @@
       <c r="B23" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="D23" s="22"/>
       <c r="E23" s="64">
         <f ca="1">E22</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F23" s="64">
         <f ca="1">E23+5</f>
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13">
@@ -3514,15 +3533,17 @@
       <c r="B24" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="D24" s="22"/>
       <c r="E24" s="64">
         <f ca="1">E23</f>
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F24" s="64">
         <f ca="1">E24+5</f>
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
@@ -4201,17 +4222,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4379,12 +4400,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4676,29 +4708,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4725,13 +4750,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/overige_bestanden/Planning.xlsx
+++ b/overige_bestanden/Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD9D50-3E75-487E-A6E2-B90BF574E8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F944F1B8-5D7C-45F3-9454-EC1BED751473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -225,12 +225,6 @@
     <t>Database</t>
   </si>
   <si>
-    <t xml:space="preserve">Database Design </t>
-  </si>
-  <si>
-    <t>Inlog gegevens</t>
-  </si>
-  <si>
     <t>Verschillende Courses</t>
   </si>
   <si>
@@ -240,22 +234,34 @@
     <t>Front end</t>
   </si>
   <si>
-    <t>Aanmeld scherm</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Cursusscherm</t>
-  </si>
-  <si>
-    <t>Video's</t>
-  </si>
-  <si>
     <t>Oma</t>
   </si>
   <si>
     <t>jesse</t>
+  </si>
+  <si>
+    <t>Tabel maken voor inloggegevens</t>
+  </si>
+  <si>
+    <t>tabel maken voor verschillende soorten cursusen</t>
+  </si>
+  <si>
+    <t>database maken met xampp</t>
+  </si>
+  <si>
+    <t>alle tabalenen toevoegen aan de database</t>
+  </si>
+  <si>
+    <t>database linken met C#</t>
+  </si>
+  <si>
+    <t>3 verschillende windows form maken</t>
+  </si>
+  <si>
+    <t>in een windowform de cursussen laten zien</t>
+  </si>
+  <si>
+    <t>informatie opzoeken over hoe je database toevoegt</t>
   </si>
 </sst>
 </file>
@@ -1219,12 +1225,6 @@
     <xf numFmtId="168" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,6 +1237,12 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1847,15 +1853,15 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
@@ -1871,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1892,89 +1898,89 @@
         <v>2</v>
       </c>
       <c r="B3" s="42"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="71">
+      <c r="D3" s="74"/>
+      <c r="E3" s="69">
         <f ca="1">TODAY()</f>
         <v>45057</v>
       </c>
-      <c r="F3" s="71"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="70">
         <f ca="1">I5</f>
         <v>45054</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="72">
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="70">
         <f ca="1">P5</f>
         <v>45061</v>
       </c>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="70"/>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="70"/>
-      <c r="BH4" s="70"/>
-      <c r="BI4" s="70"/>
-      <c r="BJ4" s="70"/>
-      <c r="BK4" s="70"/>
-      <c r="BL4" s="70"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="68"/>
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
@@ -2681,7 +2687,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D13" s="16">
         <v>1</v>
@@ -2761,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="18"/>
@@ -2832,13 +2838,13 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="50" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="61">
         <f ca="1">E13</f>
@@ -2913,7 +2919,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="50" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>44</v>
@@ -2994,12 +3000,14 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
       <c r="E17" s="61">
         <f ca="1">E15</f>
         <v>45057</v>
@@ -3073,12 +3081,14 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
       <c r="E18" s="61">
         <f ca="1">E17</f>
         <v>45057</v>
@@ -3151,15 +3161,27 @@
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="B19" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="61">
+        <f ca="1">E15</f>
+        <v>45057</v>
+      </c>
+      <c r="F19" s="61">
+        <f ca="1">E19</f>
+        <v>45057</v>
+      </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="H19" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -3223,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="21"/>
@@ -3299,7 +3321,9 @@
       <c r="C21" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
       <c r="E21" s="64">
         <f ca="1">E9</f>
         <v>45057</v>
@@ -3378,7 +3402,9 @@
       <c r="C22" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
       <c r="E22" s="64">
         <f ca="1">E21</f>
         <v>45057</v>
@@ -3457,7 +3483,9 @@
       <c r="C23" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
       <c r="E23" s="64">
         <f ca="1">E22</f>
         <v>45057</v>
@@ -3536,7 +3564,9 @@
       <c r="C24" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
       <c r="E24" s="64">
         <f ca="1">E23</f>
         <v>45057</v>
@@ -3609,15 +3639,27 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
+      <c r="B25" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="64">
+        <f ca="1">E9</f>
+        <v>45057</v>
+      </c>
+      <c r="F25" s="64">
+        <f ca="1">E25+5</f>
+        <v>45062</v>
+      </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="H25" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -4222,17 +4264,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4400,23 +4442,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4708,22 +4739,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4750,9 +4788,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>